--- a/BackTest/2020-01-19 BackTest TRX.xlsx
+++ b/BackTest/2020-01-19 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1310148.36913888</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1310148.36913888</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>19.69</v>
@@ -521,7 +521,7 @@
         <v>877830.39413888</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>19.69</v>
@@ -562,7 +562,7 @@
         <v>1734033.10023888</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>19.64</v>
@@ -603,7 +603,7 @@
         <v>2245381.62673888</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>19.72</v>
@@ -644,7 +644,7 @@
         <v>2232735.75923888</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>19.75</v>
@@ -685,7 +685,7 @@
         <v>2293989.576238879</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>19.72</v>
@@ -726,9 +726,11 @@
         <v>2741874.243238879</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.75</v>
+      </c>
       <c r="J9" t="n">
         <v>19.69</v>
       </c>
@@ -765,7 +767,7 @@
         <v>2716142.705738879</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>19.77</v>
@@ -806,9 +808,11 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.75</v>
+      </c>
       <c r="J11" t="n">
         <v>19.69</v>
       </c>
@@ -845,7 +849,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>19.77</v>
@@ -886,7 +890,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>19.77</v>
@@ -927,7 +931,7 @@
         <v>2960308.236238879</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>19.77</v>
@@ -968,7 +972,7 @@
         <v>3533563.369038879</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>19.79</v>
@@ -1009,9 +1013,11 @@
         <v>3478130.395038879</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19.87</v>
+      </c>
       <c r="J16" t="n">
         <v>19.69</v>
       </c>
@@ -1048,9 +1054,11 @@
         <v>3550289.085170869</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19.84</v>
+      </c>
       <c r="J17" t="n">
         <v>19.69</v>
       </c>
@@ -1087,9 +1095,11 @@
         <v>3550322.085238879</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19.88</v>
+      </c>
       <c r="J18" t="n">
         <v>19.69</v>
       </c>
@@ -1126,9 +1136,11 @@
         <v>4467124.673860718</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19.92</v>
+      </c>
       <c r="J19" t="n">
         <v>19.69</v>
       </c>
@@ -1165,9 +1177,11 @@
         <v>4353422.440560718</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19.95</v>
+      </c>
       <c r="J20" t="n">
         <v>19.69</v>
       </c>
@@ -1204,9 +1218,11 @@
         <v>4277875.945860718</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19.89</v>
+      </c>
       <c r="J21" t="n">
         <v>19.69</v>
       </c>
@@ -1243,9 +1259,11 @@
         <v>4471473.224860718</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19.85</v>
+      </c>
       <c r="J22" t="n">
         <v>19.69</v>
       </c>
@@ -1282,9 +1300,11 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19.86</v>
+      </c>
       <c r="J23" t="n">
         <v>19.69</v>
       </c>
@@ -1321,9 +1341,11 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.85</v>
+      </c>
       <c r="J24" t="n">
         <v>19.69</v>
       </c>
@@ -1360,9 +1382,11 @@
         <v>4608390.967460718</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.85</v>
+      </c>
       <c r="J25" t="n">
         <v>19.69</v>
       </c>
@@ -1399,9 +1423,11 @@
         <v>4608390.967460718</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J26" t="n">
         <v>19.69</v>
       </c>
@@ -1438,9 +1464,11 @@
         <v>4963538.389560718</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J27" t="n">
         <v>19.69</v>
       </c>
@@ -1477,9 +1505,11 @@
         <v>6939958.465260718</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>19.94</v>
+      </c>
       <c r="J28" t="n">
         <v>19.69</v>
       </c>
@@ -3895,7 +3925,7 @@
         <v>11127022.98146795</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
@@ -3903,11 +3933,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>1.018362112747587</v>
       </c>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3934,17 +3964,11 @@
         <v>11084817.17746795</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3973,17 +3997,11 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4012,17 +4030,11 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4051,17 +4063,11 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4090,17 +4096,11 @@
         <v>11134421.20936795</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4129,17 +4129,11 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4168,17 +4162,11 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4207,17 +4195,11 @@
         <v>12913784.53946795</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4246,17 +4228,11 @@
         <v>13004462.66026795</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4285,17 +4261,11 @@
         <v>12837677.27066795</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4324,17 +4294,11 @@
         <v>12762482.48346795</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4363,17 +4327,11 @@
         <v>13734631.54526795</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4402,17 +4360,11 @@
         <v>13937570.19066795</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4441,17 +4393,11 @@
         <v>13737570.19066795</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4480,17 +4426,11 @@
         <v>13711935.46066795</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4519,17 +4459,11 @@
         <v>13779931.36976795</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4558,17 +4492,11 @@
         <v>13447475.53556795</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4597,17 +4525,11 @@
         <v>12845697.40476795</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4636,17 +4558,11 @@
         <v>12809846.74266795</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4675,17 +4591,11 @@
         <v>12703546.74266795</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4714,17 +4624,11 @@
         <v>12723626.64266795</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4753,17 +4657,11 @@
         <v>12872495.86726795</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4792,17 +4690,11 @@
         <v>12872521.85286795</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4831,17 +4723,11 @@
         <v>12739312.29156795</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4870,17 +4756,11 @@
         <v>14048380.45416795</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4909,17 +4789,11 @@
         <v>14033736.20616795</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4948,17 +4822,11 @@
         <v>13933228.82006795</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4987,17 +4855,11 @@
         <v>13937805.95266795</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5026,17 +4888,11 @@
         <v>14014174.91486795</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +4924,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5107,14 +4957,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5143,17 +4987,11 @@
         <v>14406890.88945849</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +5023,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5221,17 +5053,11 @@
         <v>14419507.01605849</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +5089,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5302,14 +5122,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5338,17 +5152,11 @@
         <v>14401955.03235849</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5380,14 +5188,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5419,14 +5221,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +5254,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +5320,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5575,14 +5353,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5386,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5650,17 +5416,11 @@
         <v>13505971.90405848</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5689,17 +5449,11 @@
         <v>13505971.90405848</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5728,17 +5482,11 @@
         <v>13845828.35945848</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5767,17 +5515,11 @@
         <v>13845828.35945848</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5806,17 +5548,11 @@
         <v>14113998.17995848</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5584,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5884,17 +5614,11 @@
         <v>13930488.57945848</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5923,17 +5647,11 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5962,17 +5680,11 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6001,17 +5713,11 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6040,17 +5746,11 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6079,17 +5779,11 @@
         <v>13912640.52951388</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6118,17 +5812,11 @@
         <v>13939356.02291388</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6157,17 +5845,11 @@
         <v>13358915.24871388</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +5881,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6235,17 +5911,11 @@
         <v>13339435.13501388</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6274,17 +5944,11 @@
         <v>13342385.13501388</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +5980,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6352,17 +6010,11 @@
         <v>13340500.15849552</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6391,17 +6043,11 @@
         <v>13490952.58269553</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6433,14 +6079,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6469,17 +6109,11 @@
         <v>13429295.88559552</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6511,14 +6145,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6547,17 +6175,11 @@
         <v>13481021.84663182</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6211,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6244,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6277,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +6310,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6343,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6376,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6409,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6475,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6508,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6541,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6574,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6607,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6640,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +6673,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7171,17 +6703,11 @@
         <v>13757075.4536055</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7210,17 +6736,11 @@
         <v>12629374.3923055</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7249,17 +6769,11 @@
         <v>12585450.8910055</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7288,17 +6802,11 @@
         <v>12515615.9943055</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7327,17 +6835,11 @@
         <v>12447848.9821055</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7366,17 +6868,11 @@
         <v>12370762.48740551</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7405,17 +6901,11 @@
         <v>10772216.89930551</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7444,17 +6934,11 @@
         <v>11473134.6596055</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7483,17 +6967,11 @@
         <v>11764668.4328055</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7522,17 +7000,11 @@
         <v>12056803.8793055</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7561,17 +7033,11 @@
         <v>11734712.1734055</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7600,17 +7066,11 @@
         <v>11768254.4840055</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7639,17 +7099,11 @@
         <v>11496561.3042055</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7678,17 +7132,11 @@
         <v>11509386.0328055</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7717,17 +7165,11 @@
         <v>10771152.4848055</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7756,17 +7198,11 @@
         <v>10771390.2102564</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7795,17 +7231,11 @@
         <v>11431820.7081055</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7834,17 +7264,11 @@
         <v>11915248.7681055</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7873,17 +7297,11 @@
         <v>11915248.7681055</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7912,17 +7330,11 @@
         <v>12699625.1968055</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7951,17 +7363,11 @@
         <v>12699625.1968055</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7990,17 +7396,11 @@
         <v>12606735.2282055</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8029,17 +7429,11 @@
         <v>12604459.5582055</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +7462,11 @@
         <v>12604459.5582055</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7495,11 @@
         <v>12604459.5582055</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +7528,11 @@
         <v>12599244.9680055</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +7561,11 @@
         <v>12515981.9087055</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8263,17 +7627,11 @@
         <v>12517274.8582055</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8302,17 +7660,11 @@
         <v>12466881.6820055</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +7696,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +7729,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +7762,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +7795,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8497,17 +7825,11 @@
         <v>12466881.6820055</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8536,17 +7858,11 @@
         <v>12479802.2071055</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8575,17 +7891,11 @@
         <v>11988571.3988055</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8614,17 +7924,11 @@
         <v>12066027.3988055</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8653,17 +7957,11 @@
         <v>11979977.2252055</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +7993,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8731,17 +8023,11 @@
         <v>11945574.7462055</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8770,17 +8056,11 @@
         <v>11945574.7462055</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8809,17 +8089,11 @@
         <v>11948787.89940551</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8848,17 +8122,11 @@
         <v>11948787.89940551</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8158,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8191,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8224,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8257,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8290,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8323,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9124,14 +8356,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9163,14 +8389,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9202,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9241,14 +8455,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9280,14 +8488,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9319,14 +8521,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9358,14 +8554,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9397,14 +8587,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9436,14 +8620,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9475,14 +8653,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9511,17 +8683,11 @@
         <v>11742240.81891299</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9550,17 +8716,11 @@
         <v>10534586.84591299</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9592,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +8785,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +8818,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9709,14 +8851,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9748,14 +8884,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9787,14 +8917,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9826,14 +8950,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9865,14 +8983,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9904,14 +9016,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +9049,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +9082,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9115,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10060,14 +9148,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +9181,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9214,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10177,14 +9247,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +9280,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +9313,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10294,14 +9346,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +9379,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10372,14 +9412,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10411,14 +9445,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10450,14 +9478,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10489,14 +9511,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10528,14 +9544,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10567,14 +9577,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10606,14 +9610,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10645,14 +9643,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10684,14 +9676,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10723,14 +9709,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10759,19 +9739,13 @@
         <v>10693275.57859185</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
-        <v>1.008712544438801</v>
+        <v>1</v>
       </c>
       <c r="M266" t="inlineStr"/>
     </row>
@@ -10798,7 +9772,7 @@
         <v>10789142.03299185</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10897,7 +9871,7 @@
         <v>10731143.40146631</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -11194,7 +10168,7 @@
         <v>10876746.29646632</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11227,7 +10201,7 @@
         <v>10749184.28716632</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11260,7 +10234,7 @@
         <v>10749184.28716632</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11293,7 +10267,7 @@
         <v>11063169.12596632</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11326,7 +10300,7 @@
         <v>11271265.80046632</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11359,7 +10333,7 @@
         <v>11335765.80046632</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11425,7 +10399,7 @@
         <v>11451181.10746632</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11458,7 +10432,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11491,7 +10465,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11524,7 +10498,7 @@
         <v>11262850.04416632</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11557,7 +10531,7 @@
         <v>11294273.70836632</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11590,7 +10564,7 @@
         <v>11294113.70836632</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11623,7 +10597,7 @@
         <v>11286318.95196632</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11656,7 +10630,7 @@
         <v>11274663.57196631</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11689,7 +10663,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11722,7 +10696,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11755,7 +10729,7 @@
         <v>11257445.44713859</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11788,7 +10762,7 @@
         <v>11162904.87723858</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11821,7 +10795,7 @@
         <v>11154606.43373859</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11854,7 +10828,7 @@
         <v>11221793.40053859</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11887,7 +10861,7 @@
         <v>11279801.82733859</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11920,7 +10894,7 @@
         <v>11261429.21143859</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11953,7 +10927,7 @@
         <v>11292195.50383859</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11986,7 +10960,7 @@
         <v>11293195.50383859</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12019,7 +10993,7 @@
         <v>11303506.24193859</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12052,7 +11026,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12085,7 +11059,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12118,7 +11092,7 @@
         <v>11166689.68123858</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12151,7 +11125,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12184,7 +11158,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12217,7 +11191,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12250,7 +11224,7 @@
         <v>11234351.93713859</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12283,7 +11257,7 @@
         <v>11224650.36613858</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12316,7 +11290,7 @@
         <v>11148424.92203858</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12349,7 +11323,7 @@
         <v>11123461.17183859</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12382,7 +11356,7 @@
         <v>11007048.15583858</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12415,7 +11389,7 @@
         <v>10894598.08163858</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12448,7 +11422,7 @@
         <v>11008396.87983858</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12481,7 +11455,7 @@
         <v>10857391.37003858</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12514,7 +11488,7 @@
         <v>11381423.33963858</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12547,7 +11521,7 @@
         <v>11366422.53963858</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12580,7 +11554,7 @@
         <v>11357970.89743858</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12613,7 +11587,7 @@
         <v>11388669.25403858</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12646,7 +11620,7 @@
         <v>11388669.25403858</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12679,7 +11653,7 @@
         <v>11205994.92603858</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12712,7 +11686,7 @@
         <v>11211103.76223858</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12745,7 +11719,7 @@
         <v>11211103.76223858</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12778,7 +11752,7 @@
         <v>10552371.97043858</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12811,7 +11785,7 @@
         <v>10669017.43043858</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12844,7 +11818,7 @@
         <v>10669017.43043858</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12877,7 +11851,7 @@
         <v>10277060.26893858</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12910,7 +11884,7 @@
         <v>10400662.71263858</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12943,7 +11917,7 @@
         <v>10400662.71263858</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12976,7 +11950,7 @@
         <v>10355839.59783858</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13009,7 +11983,7 @@
         <v>10721388.63893858</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13042,7 +12016,7 @@
         <v>10596378.04723858</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13075,7 +12049,7 @@
         <v>10164028.76795631</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13108,7 +12082,7 @@
         <v>9596274.768756313</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13174,7 +12148,7 @@
         <v>9113538.779756313</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13207,7 +12181,7 @@
         <v>9053538.779756313</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13240,7 +12214,7 @@
         <v>9045736.811544923</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13438,7 +12412,7 @@
         <v>9733123.645544922</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13471,7 +12445,7 @@
         <v>9733123.645544922</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13504,7 +12478,7 @@
         <v>9733123.645544922</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13537,7 +12511,7 @@
         <v>9736834.221744921</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13603,7 +12577,7 @@
         <v>9690167.122244921</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13636,7 +12610,7 @@
         <v>9690549.55874492</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13669,7 +12643,7 @@
         <v>9617588.943344921</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13702,7 +12676,7 @@
         <v>9617588.943344921</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13735,7 +12709,7 @@
         <v>9617588.943344921</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14263,7 +13237,7 @@
         <v>9700907.408353699</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14296,7 +13270,7 @@
         <v>9873758.483953699</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14329,7 +13303,7 @@
         <v>9598775.136453699</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14362,7 +13336,7 @@
         <v>9826325.690553699</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14395,7 +13369,7 @@
         <v>9868134.853553699</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14428,7 +13402,7 @@
         <v>9863473.389653699</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14527,7 +13501,7 @@
         <v>9866373.389653699</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14560,7 +13534,7 @@
         <v>9866373.389653699</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14593,7 +13567,7 @@
         <v>9697081.71444894</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14626,7 +13600,7 @@
         <v>8662459.71554894</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14659,7 +13633,7 @@
         <v>8459549.71564894</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14692,7 +13666,7 @@
         <v>8449644.11300505</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14725,7 +13699,7 @@
         <v>8337074.24798436</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14758,7 +13732,7 @@
         <v>8337074.24798436</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14791,7 +13765,7 @@
         <v>7764416.54318436</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14824,7 +13798,7 @@
         <v>8093442.603322481</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14857,7 +13831,7 @@
         <v>7798906.970422481</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14890,7 +13864,7 @@
         <v>7798906.970422481</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14923,7 +13897,7 @@
         <v>8222722.057822481</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14956,7 +13930,7 @@
         <v>8108374.568643191</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14989,7 +13963,7 @@
         <v>8178559.584443191</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15022,7 +13996,7 @@
         <v>8178559.584443191</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15055,7 +14029,7 @@
         <v>8179812.044543191</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15088,7 +14062,7 @@
         <v>8349196.202543191</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15121,7 +14095,7 @@
         <v>8517825.021330832</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15154,7 +14128,7 @@
         <v>8513071.862330832</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15187,7 +14161,7 @@
         <v>8513071.862330832</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15220,7 +14194,7 @@
         <v>8571553.011130832</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15253,7 +14227,7 @@
         <v>8576709.447430832</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15286,7 +14260,7 @@
         <v>8348497.190130833</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15319,7 +14293,7 @@
         <v>8849652.086330833</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15352,7 +14326,7 @@
         <v>9073247.042130833</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15385,7 +14359,7 @@
         <v>9073247.042130833</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15418,7 +14392,7 @@
         <v>9047173.437330833</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15451,7 +14425,7 @@
         <v>9091259.315730833</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15484,7 +14458,7 @@
         <v>9145709.991704013</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15517,7 +14491,7 @@
         <v>8890249.265604014</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15550,7 +14524,7 @@
         <v>8681727.072604014</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15583,7 +14557,7 @@
         <v>8684621.475804014</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15616,7 +14590,7 @@
         <v>8713299.762172583</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15649,7 +14623,7 @@
         <v>8658884.165096033</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15682,7 +14656,7 @@
         <v>8658884.165096033</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15715,7 +14689,7 @@
         <v>8800730.606776074</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15748,7 +14722,7 @@
         <v>8805430.606776074</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15781,7 +14755,7 @@
         <v>8833267.720176073</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15814,7 +14788,7 @@
         <v>9410720.153632972</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15847,7 +14821,7 @@
         <v>9410720.153632972</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15880,7 +14854,7 @@
         <v>9406838.035747692</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15913,7 +14887,7 @@
         <v>9406838.035747692</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15946,7 +14920,7 @@
         <v>9553324.782206131</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15979,7 +14953,7 @@
         <v>9553324.782206131</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16012,7 +14986,7 @@
         <v>9552324.782206131</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16045,7 +15019,7 @@
         <v>9594408.673606131</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16078,7 +15052,7 @@
         <v>9559400.349206131</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16111,7 +15085,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16144,7 +15118,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16177,7 +15151,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16210,7 +15184,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16243,7 +15217,7 @@
         <v>9592770.418306131</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16276,7 +15250,7 @@
         <v>9423155.970606131</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16342,7 +15316,7 @@
         <v>9123388.320106132</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16375,7 +15349,7 @@
         <v>8643564.737006132</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16408,7 +15382,7 @@
         <v>8680406.813606132</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16441,7 +15415,7 @@
         <v>8155468.853006132</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16474,7 +15448,7 @@
         <v>7954930.812106132</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16507,7 +15481,7 @@
         <v>7886021.207783871</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16540,7 +15514,7 @@
         <v>7702973.756383872</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16573,7 +15547,7 @@
         <v>7702973.756383872</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16606,7 +15580,7 @@
         <v>7624382.163383871</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16639,7 +15613,7 @@
         <v>7629500.636683871</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16672,7 +15646,7 @@
         <v>7529500.636683871</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16705,7 +15679,7 @@
         <v>7864826.980683871</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16738,7 +15712,7 @@
         <v>7843724.933483871</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16771,7 +15745,7 @@
         <v>7851818.682183871</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16804,7 +15778,7 @@
         <v>7851818.682183871</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16837,7 +15811,7 @@
         <v>7851818.682183871</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16870,7 +15844,7 @@
         <v>7855250.670983871</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16903,7 +15877,7 @@
         <v>7790275.356783872</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16936,7 +15910,7 @@
         <v>7796215.146783872</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16969,7 +15943,7 @@
         <v>7796215.146783872</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17002,7 +15976,7 @@
         <v>7787908.307983872</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17035,7 +16009,7 @@
         <v>7818365.877983872</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17068,7 +16042,7 @@
         <v>7471101.094852611</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17101,7 +16075,7 @@
         <v>7416804.949452612</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17134,7 +16108,7 @@
         <v>7556535.611152612</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17167,7 +16141,7 @@
         <v>7292113.737252612</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17200,7 +16174,7 @@
         <v>7351793.366852611</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17233,7 +16207,7 @@
         <v>7737181.733652611</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17266,7 +16240,7 @@
         <v>7737181.733652611</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17299,7 +16273,7 @@
         <v>7727783.983652611</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17332,7 +16306,7 @@
         <v>7673571.450852611</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17431,7 +16405,7 @@
         <v>7119989.671527811</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17464,7 +16438,7 @@
         <v>7344510.491027812</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17596,7 +16570,7 @@
         <v>7735483.173927811</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -19609,7 +18583,7 @@
         <v>9371150.887299938</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19642,7 +18616,7 @@
         <v>9286850.887299938</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19675,7 +18649,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19708,7 +18682,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19741,7 +18715,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19774,7 +18748,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19807,7 +18781,7 @@
         <v>9359067.611699937</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19840,7 +18814,7 @@
         <v>9426537.346099937</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19873,7 +18847,7 @@
         <v>9583963.377241828</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19906,7 +18880,7 @@
         <v>9668395.904241828</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19939,7 +18913,7 @@
         <v>9668395.904241828</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19972,7 +18946,7 @@
         <v>9583039.043141829</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20005,7 +18979,7 @@
         <v>9559359.311941829</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20038,7 +19012,7 @@
         <v>9559359.311941829</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20071,7 +19045,7 @@
         <v>9198106.273941828</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20104,7 +19078,7 @@
         <v>9198106.273941828</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20137,7 +19111,7 @@
         <v>9010913.517741827</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20170,7 +19144,7 @@
         <v>8952599.258641828</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20203,7 +19177,7 @@
         <v>8970530.371641828</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20236,7 +19210,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20269,7 +19243,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20302,7 +19276,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20335,7 +19309,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20368,7 +19342,7 @@
         <v>8819889.814241828</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20401,7 +19375,7 @@
         <v>8778354.922534319</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20434,7 +19408,7 @@
         <v>8559814.108034318</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20467,7 +19441,7 @@
         <v>7965376.128534318</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20500,7 +19474,7 @@
         <v>7965376.128534318</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20533,7 +19507,7 @@
         <v>8011149.504258688</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20566,7 +19540,7 @@
         <v>8003712.128258687</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20599,7 +19573,7 @@
         <v>7896992.225558687</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20632,7 +19606,7 @@
         <v>8115703.345858687</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -24295,7 +23269,7 @@
         <v>6361010.805961773</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24328,7 +23302,7 @@
         <v>6361010.805961773</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -33249,6 +32223,6 @@
       <c r="M947" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest TRX.xlsx
+++ b/BackTest/2020-01-19 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>2232735.75923888</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19.75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>19.69</v>
       </c>
@@ -726,11 +724,9 @@
         <v>2741874.243238879</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>19.75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>19.69</v>
       </c>
@@ -767,11 +763,9 @@
         <v>2716142.705738879</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19.77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>19.69</v>
       </c>
@@ -808,11 +802,9 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19.75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>19.69</v>
       </c>
@@ -849,11 +841,9 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19.77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>19.69</v>
       </c>
@@ -890,11 +880,9 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19.77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>19.69</v>
       </c>
@@ -931,11 +919,9 @@
         <v>2960308.236238879</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19.77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>19.69</v>
       </c>
@@ -972,21 +958,19 @@
         <v>3533563.369038879</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19.79</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>19.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>1.004141696292534</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -1013,19 +997,11 @@
         <v>3478130.395038879</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +1030,11 @@
         <v>3550289.085170869</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +1063,11 @@
         <v>3550322.085238879</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1096,11 @@
         <v>4467124.673860718</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="J19" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1129,11 @@
         <v>4353422.440560718</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="J20" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1162,11 @@
         <v>4277875.945860718</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="J21" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1195,11 @@
         <v>4471473.224860718</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="J22" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1228,11 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.86</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1261,11 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="J24" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1294,11 @@
         <v>4608390.967460718</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="J25" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1423,19 +1327,11 @@
         <v>4608390.967460718</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1360,11 @@
         <v>4963538.389560718</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1505,19 +1393,11 @@
         <v>6939958.465260718</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="J28" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1549,14 +1429,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1588,14 +1462,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1627,14 +1495,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1666,14 +1528,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1705,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1744,14 +1594,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1783,14 +1627,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1822,14 +1660,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1861,14 +1693,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1900,14 +1726,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1939,14 +1759,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1978,14 +1792,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2014,17 +1822,11 @@
         <v>6950456.093460717</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2053,17 +1855,11 @@
         <v>6762313.401460717</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2092,17 +1888,11 @@
         <v>6538961.924960718</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2134,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2173,14 +1957,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2212,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2251,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2287,17 +2053,11 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2326,17 +2086,11 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2365,17 +2119,11 @@
         <v>6728819.914360718</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2404,17 +2152,11 @@
         <v>6886224.221860718</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2443,17 +2185,11 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2482,17 +2218,11 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2254,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2287,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2602,14 +2320,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2638,17 +2350,11 @@
         <v>7200682.084060718</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2716,17 +2416,11 @@
         <v>7163549.330760718</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2755,17 +2449,11 @@
         <v>7265339.722160718</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2794,17 +2482,11 @@
         <v>7399372.537733939</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2833,17 +2515,11 @@
         <v>7399190.625133938</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2872,17 +2548,11 @@
         <v>7908557.061133938</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2914,14 +2584,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2953,14 +2617,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2992,14 +2650,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3031,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +2716,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3148,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3187,14 +2815,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3226,14 +2848,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3265,14 +2881,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3304,14 +2914,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3343,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3382,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3421,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3460,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3499,14 +3079,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3538,14 +3112,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3577,14 +3145,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3616,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3655,14 +3211,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3694,14 +3244,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3733,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3772,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3811,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3850,14 +3376,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3889,14 +3409,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3925,19 +3439,13 @@
         <v>11127022.98146795</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>1.018362112747587</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3964,7 +3472,7 @@
         <v>11084817.17746795</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3997,7 +3505,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4030,7 +3538,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4063,7 +3571,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4096,7 +3604,7 @@
         <v>11134421.20936795</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4129,7 +3637,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4162,7 +3670,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4195,7 +3703,7 @@
         <v>12913784.53946795</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4228,7 +3736,7 @@
         <v>13004462.66026795</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4261,7 +3769,7 @@
         <v>12837677.27066795</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4294,7 +3802,7 @@
         <v>12762482.48346795</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4327,7 +3835,7 @@
         <v>13734631.54526795</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4360,7 +3868,7 @@
         <v>13937570.19066795</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4393,7 +3901,7 @@
         <v>13737570.19066795</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4426,7 +3934,7 @@
         <v>13711935.46066795</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4459,7 +3967,7 @@
         <v>13779931.36976795</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4492,7 +4000,7 @@
         <v>13447475.53556795</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4525,7 +4033,7 @@
         <v>12845697.40476795</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4558,7 +4066,7 @@
         <v>12809846.74266795</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4591,7 +4099,7 @@
         <v>12703546.74266795</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4624,7 +4132,7 @@
         <v>12723626.64266795</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4657,7 +4165,7 @@
         <v>12872495.86726795</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4690,7 +4198,7 @@
         <v>12872521.85286795</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4723,7 +4231,7 @@
         <v>12739312.29156795</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4756,7 +4264,7 @@
         <v>14048380.45416795</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4789,7 +4297,7 @@
         <v>14033736.20616795</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4822,7 +4330,7 @@
         <v>13933228.82006795</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4855,7 +4363,7 @@
         <v>13937805.95266795</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4888,7 +4396,7 @@
         <v>14014174.91486795</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4987,7 +4495,7 @@
         <v>14406890.88945849</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5053,7 +4561,7 @@
         <v>14419507.01605849</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5152,7 +4660,7 @@
         <v>14401955.03235849</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5416,7 +4924,7 @@
         <v>13505971.90405848</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5449,7 +4957,7 @@
         <v>13505971.90405848</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5482,7 +4990,7 @@
         <v>13845828.35945848</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5515,7 +5023,7 @@
         <v>13845828.35945848</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5548,7 +5056,7 @@
         <v>14113998.17995848</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5614,7 +5122,7 @@
         <v>13930488.57945848</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5647,7 +5155,7 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5680,7 +5188,7 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5713,7 +5221,7 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5746,7 +5254,7 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5779,7 +5287,7 @@
         <v>13912640.52951388</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5812,7 +5320,7 @@
         <v>13939356.02291388</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5845,7 +5353,7 @@
         <v>13358915.24871388</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5911,7 +5419,7 @@
         <v>13339435.13501388</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5944,7 +5452,7 @@
         <v>13342385.13501388</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6010,7 +5518,7 @@
         <v>13340500.15849552</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6043,7 +5551,7 @@
         <v>13490952.58269553</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6109,7 +5617,7 @@
         <v>13429295.88559552</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6175,7 +5683,7 @@
         <v>13481021.84663182</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6703,7 +6211,7 @@
         <v>13757075.4536055</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6736,7 +6244,7 @@
         <v>12629374.3923055</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6769,7 +6277,7 @@
         <v>12585450.8910055</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6802,7 +6310,7 @@
         <v>12515615.9943055</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6835,7 +6343,7 @@
         <v>12447848.9821055</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6868,7 +6376,7 @@
         <v>12370762.48740551</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6901,7 +6409,7 @@
         <v>10772216.89930551</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6967,7 +6475,7 @@
         <v>11764668.4328055</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7033,7 +6541,7 @@
         <v>11734712.1734055</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7066,7 +6574,7 @@
         <v>11768254.4840055</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7099,7 +6607,7 @@
         <v>11496561.3042055</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7132,7 +6640,7 @@
         <v>11509386.0328055</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7165,7 +6673,7 @@
         <v>10771152.4848055</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7198,7 +6706,7 @@
         <v>10771390.2102564</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7231,7 +6739,7 @@
         <v>11431820.7081055</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7264,7 +6772,7 @@
         <v>11915248.7681055</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7297,7 +6805,7 @@
         <v>11915248.7681055</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7330,7 +6838,7 @@
         <v>12699625.1968055</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7363,7 +6871,7 @@
         <v>12699625.1968055</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7396,7 +6904,7 @@
         <v>12606735.2282055</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7429,7 +6937,7 @@
         <v>12604459.5582055</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7462,7 +6970,7 @@
         <v>12604459.5582055</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7495,7 +7003,7 @@
         <v>12604459.5582055</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7528,7 +7036,7 @@
         <v>12599244.9680055</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7561,7 +7069,7 @@
         <v>12515981.9087055</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7627,7 +7135,7 @@
         <v>12517274.8582055</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7660,7 +7168,7 @@
         <v>12466881.6820055</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7825,7 +7333,7 @@
         <v>12466881.6820055</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7858,7 +7366,7 @@
         <v>12479802.2071055</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7891,7 +7399,7 @@
         <v>11988571.3988055</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7924,7 +7432,7 @@
         <v>12066027.3988055</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7957,7 +7465,7 @@
         <v>11979977.2252055</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8023,7 +7531,7 @@
         <v>11945574.7462055</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8056,7 +7564,7 @@
         <v>11945574.7462055</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8089,7 +7597,7 @@
         <v>11948787.89940551</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8122,7 +7630,7 @@
         <v>11948787.89940551</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8683,7 +8191,7 @@
         <v>11742240.81891299</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8716,7 +8224,7 @@
         <v>10534586.84591299</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -10267,7 +9775,7 @@
         <v>11063169.12596632</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10300,7 +9808,7 @@
         <v>11271265.80046632</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10333,7 +9841,7 @@
         <v>11335765.80046632</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10399,7 +9907,7 @@
         <v>11451181.10746632</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10432,7 +9940,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10465,7 +9973,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10498,7 +10006,7 @@
         <v>11262850.04416632</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10531,7 +10039,7 @@
         <v>11294273.70836632</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10564,7 +10072,7 @@
         <v>11294113.70836632</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10597,7 +10105,7 @@
         <v>11286318.95196632</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10630,7 +10138,7 @@
         <v>11274663.57196631</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10663,7 +10171,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10696,7 +10204,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10729,7 +10237,7 @@
         <v>11257445.44713859</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10762,7 +10270,7 @@
         <v>11162904.87723858</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10795,7 +10303,7 @@
         <v>11154606.43373859</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10828,7 +10336,7 @@
         <v>11221793.40053859</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10861,7 +10369,7 @@
         <v>11279801.82733859</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10894,7 +10402,7 @@
         <v>11261429.21143859</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10927,7 +10435,7 @@
         <v>11292195.50383859</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10960,7 +10468,7 @@
         <v>11293195.50383859</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10993,7 +10501,7 @@
         <v>11303506.24193859</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11026,7 +10534,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11059,7 +10567,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11092,7 +10600,7 @@
         <v>11166689.68123858</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11125,7 +10633,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11158,7 +10666,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11191,7 +10699,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11224,7 +10732,7 @@
         <v>11234351.93713859</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11257,7 +10765,7 @@
         <v>11224650.36613858</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11290,7 +10798,7 @@
         <v>11148424.92203858</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11323,7 +10831,7 @@
         <v>11123461.17183859</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11356,7 +10864,7 @@
         <v>11007048.15583858</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11389,7 +10897,7 @@
         <v>10894598.08163858</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11422,7 +10930,7 @@
         <v>11008396.87983858</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11455,7 +10963,7 @@
         <v>10857391.37003858</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11488,7 +10996,7 @@
         <v>11381423.33963858</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11521,7 +11029,7 @@
         <v>11366422.53963858</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11554,7 +11062,7 @@
         <v>11357970.89743858</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11587,7 +11095,7 @@
         <v>11388669.25403858</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11620,7 +11128,7 @@
         <v>11388669.25403858</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11653,7 +11161,7 @@
         <v>11205994.92603858</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11686,7 +11194,7 @@
         <v>11211103.76223858</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11719,7 +11227,7 @@
         <v>11211103.76223858</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11752,7 +11260,7 @@
         <v>10552371.97043858</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11785,7 +11293,7 @@
         <v>10669017.43043858</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11818,7 +11326,7 @@
         <v>10669017.43043858</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11851,7 +11359,7 @@
         <v>10277060.26893858</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11884,7 +11392,7 @@
         <v>10400662.71263858</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11917,7 +11425,7 @@
         <v>10400662.71263858</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11950,7 +11458,7 @@
         <v>10355839.59783858</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11983,7 +11491,7 @@
         <v>10721388.63893858</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12016,7 +11524,7 @@
         <v>10596378.04723858</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12049,7 +11557,7 @@
         <v>10164028.76795631</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12082,7 +11590,7 @@
         <v>9596274.768756313</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12148,7 +11656,7 @@
         <v>9113538.779756313</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12181,7 +11689,7 @@
         <v>9053538.779756313</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12214,7 +11722,7 @@
         <v>9045736.811544923</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13237,7 +12745,7 @@
         <v>9700907.408353699</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13270,7 +12778,7 @@
         <v>9873758.483953699</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13303,7 +12811,7 @@
         <v>9598775.136453699</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13336,7 +12844,7 @@
         <v>9826325.690553699</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13369,7 +12877,7 @@
         <v>9868134.853553699</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13402,7 +12910,7 @@
         <v>9863473.389653699</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13501,7 +13009,7 @@
         <v>9866373.389653699</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13534,7 +13042,7 @@
         <v>9866373.389653699</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13567,7 +13075,7 @@
         <v>9697081.71444894</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13600,7 +13108,7 @@
         <v>8662459.71554894</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13633,7 +13141,7 @@
         <v>8459549.71564894</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13666,7 +13174,7 @@
         <v>8449644.11300505</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13699,7 +13207,7 @@
         <v>8337074.24798436</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13732,7 +13240,7 @@
         <v>8337074.24798436</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13765,7 +13273,7 @@
         <v>7764416.54318436</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13798,7 +13306,7 @@
         <v>8093442.603322481</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13831,7 +13339,7 @@
         <v>7798906.970422481</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13864,7 +13372,7 @@
         <v>7798906.970422481</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13897,7 +13405,7 @@
         <v>8222722.057822481</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13930,7 +13438,7 @@
         <v>8108374.568643191</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13963,7 +13471,7 @@
         <v>8178559.584443191</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13996,7 +13504,7 @@
         <v>8178559.584443191</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14029,7 +13537,7 @@
         <v>8179812.044543191</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14062,7 +13570,7 @@
         <v>8349196.202543191</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14095,7 +13603,7 @@
         <v>8517825.021330832</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14128,7 +13636,7 @@
         <v>8513071.862330832</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14161,7 +13669,7 @@
         <v>8513071.862330832</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14194,7 +13702,7 @@
         <v>8571553.011130832</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14227,7 +13735,7 @@
         <v>8576709.447430832</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14260,7 +13768,7 @@
         <v>8348497.190130833</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14293,7 +13801,7 @@
         <v>8849652.086330833</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14326,7 +13834,7 @@
         <v>9073247.042130833</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14359,7 +13867,7 @@
         <v>9073247.042130833</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14392,7 +13900,7 @@
         <v>9047173.437330833</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14425,7 +13933,7 @@
         <v>9091259.315730833</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14458,7 +13966,7 @@
         <v>9145709.991704013</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14491,7 +13999,7 @@
         <v>8890249.265604014</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14524,7 +14032,7 @@
         <v>8681727.072604014</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14557,7 +14065,7 @@
         <v>8684621.475804014</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14590,7 +14098,7 @@
         <v>8713299.762172583</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14623,7 +14131,7 @@
         <v>8658884.165096033</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14656,7 +14164,7 @@
         <v>8658884.165096033</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14689,7 +14197,7 @@
         <v>8800730.606776074</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14722,7 +14230,7 @@
         <v>8805430.606776074</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14755,7 +14263,7 @@
         <v>8833267.720176073</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14788,7 +14296,7 @@
         <v>9410720.153632972</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14821,7 +14329,7 @@
         <v>9410720.153632972</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14854,7 +14362,7 @@
         <v>9406838.035747692</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14887,7 +14395,7 @@
         <v>9406838.035747692</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14920,7 +14428,7 @@
         <v>9553324.782206131</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14953,7 +14461,7 @@
         <v>9553324.782206131</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14986,7 +14494,7 @@
         <v>9552324.782206131</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15019,7 +14527,7 @@
         <v>9594408.673606131</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15052,7 +14560,7 @@
         <v>9559400.349206131</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15085,7 +14593,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15118,7 +14626,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15151,7 +14659,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15184,7 +14692,7 @@
         <v>9555617.848206131</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15217,7 +14725,7 @@
         <v>9592770.418306131</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15250,7 +14758,7 @@
         <v>9423155.970606131</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15316,7 +14824,7 @@
         <v>9123388.320106132</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15349,7 +14857,7 @@
         <v>8643564.737006132</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15382,7 +14890,7 @@
         <v>8680406.813606132</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15415,7 +14923,7 @@
         <v>8155468.853006132</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15448,7 +14956,7 @@
         <v>7954930.812106132</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15481,7 +14989,7 @@
         <v>7886021.207783871</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15514,7 +15022,7 @@
         <v>7702973.756383872</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15547,7 +15055,7 @@
         <v>7702973.756383872</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15580,7 +15088,7 @@
         <v>7624382.163383871</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15613,7 +15121,7 @@
         <v>7629500.636683871</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15646,7 +15154,7 @@
         <v>7529500.636683871</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15679,7 +15187,7 @@
         <v>7864826.980683871</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15712,7 +15220,7 @@
         <v>7843724.933483871</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15745,7 +15253,7 @@
         <v>7851818.682183871</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15778,7 +15286,7 @@
         <v>7851818.682183871</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15811,7 +15319,7 @@
         <v>7851818.682183871</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15844,7 +15352,7 @@
         <v>7855250.670983871</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15877,7 +15385,7 @@
         <v>7790275.356783872</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15910,7 +15418,7 @@
         <v>7796215.146783872</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15943,7 +15451,7 @@
         <v>7796215.146783872</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15976,7 +15484,7 @@
         <v>7787908.307983872</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16009,7 +15517,7 @@
         <v>7818365.877983872</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16042,7 +15550,7 @@
         <v>7471101.094852611</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16075,7 +15583,7 @@
         <v>7416804.949452612</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16108,7 +15616,7 @@
         <v>7556535.611152612</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16141,7 +15649,7 @@
         <v>7292113.737252612</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16174,7 +15682,7 @@
         <v>7351793.366852611</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16207,7 +15715,7 @@
         <v>7737181.733652611</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16240,7 +15748,7 @@
         <v>7737181.733652611</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16273,7 +15781,7 @@
         <v>7727783.983652611</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16306,7 +15814,7 @@
         <v>7673571.450852611</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16405,7 +15913,7 @@
         <v>7119989.671527811</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16438,7 +15946,7 @@
         <v>7344510.491027812</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16570,7 +16078,7 @@
         <v>7735483.173927811</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18583,7 +18091,7 @@
         <v>9371150.887299938</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18616,7 +18124,7 @@
         <v>9286850.887299938</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18649,7 +18157,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18682,7 +18190,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18715,7 +18223,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18748,7 +18256,7 @@
         <v>9374172.686899938</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18781,7 +18289,7 @@
         <v>9359067.611699937</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18814,7 +18322,7 @@
         <v>9426537.346099937</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18847,7 +18355,7 @@
         <v>9583963.377241828</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18880,7 +18388,7 @@
         <v>9668395.904241828</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18913,7 +18421,7 @@
         <v>9668395.904241828</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18946,7 +18454,7 @@
         <v>9583039.043141829</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18979,7 +18487,7 @@
         <v>9559359.311941829</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19012,7 +18520,7 @@
         <v>9559359.311941829</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19045,7 +18553,7 @@
         <v>9198106.273941828</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19078,7 +18586,7 @@
         <v>9198106.273941828</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19111,7 +18619,7 @@
         <v>9010913.517741827</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19144,7 +18652,7 @@
         <v>8952599.258641828</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19177,7 +18685,7 @@
         <v>8970530.371641828</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19210,7 +18718,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19243,7 +18751,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19276,7 +18784,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19309,7 +18817,7 @@
         <v>8816604.974241829</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19342,7 +18850,7 @@
         <v>8819889.814241828</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19375,7 +18883,7 @@
         <v>8778354.922534319</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19408,7 +18916,7 @@
         <v>8559814.108034318</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19441,7 +18949,7 @@
         <v>7965376.128534318</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19474,7 +18982,7 @@
         <v>7965376.128534318</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19507,7 +19015,7 @@
         <v>8011149.504258688</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19540,7 +19048,7 @@
         <v>8003712.128258687</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19573,7 +19081,7 @@
         <v>7896992.225558687</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19606,7 +19114,7 @@
         <v>8115703.345858687</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21850,10 +21358,14 @@
         <v>4597258.674457195</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="J633" t="n">
+        <v>19.45</v>
+      </c>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
@@ -21886,8 +21398,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21916,11 +21434,19 @@
         <v>5523907.250857195</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="J635" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22642,7 +22168,7 @@
         <v>6680226.702992503</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22708,7 +22234,7 @@
         <v>6686917.279580423</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22741,7 +22267,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22774,7 +22300,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22807,7 +22333,7 @@
         <v>6579055.446180422</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22840,7 +22366,7 @@
         <v>6550860.399980422</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22873,7 +22399,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22906,7 +22432,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22939,7 +22465,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22972,7 +22498,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23005,7 +22531,7 @@
         <v>6557464.359880422</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23038,7 +22564,7 @@
         <v>6552394.359880422</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23071,7 +22597,7 @@
         <v>6420949.103280422</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23335,7 +22861,7 @@
         <v>6361010.805961773</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23368,7 +22894,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23401,7 +22927,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23434,7 +22960,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23467,7 +22993,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23500,7 +23026,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23533,7 +23059,7 @@
         <v>6666149.733966853</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23566,7 +23092,7 @@
         <v>6666000.456466854</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23599,7 +23125,7 @@
         <v>6671998.079966853</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23632,7 +23158,7 @@
         <v>6633148.577666854</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23665,7 +23191,7 @@
         <v>6657624.407666854</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23698,7 +23224,7 @@
         <v>6651794.407666854</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23731,7 +23257,7 @@
         <v>6674674.907366853</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23764,7 +23290,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23797,7 +23323,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25018,10 +24544,14 @@
         <v>5705410.194266854</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="J729" t="n">
+        <v>19.65</v>
+      </c>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
@@ -25054,8 +24584,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25084,11 +24620,19 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="J731" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25117,11 +24661,19 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J732" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25150,11 +24702,19 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J733" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25183,11 +24743,19 @@
         <v>5972027.861266853</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J734" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25216,11 +24784,19 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="J735" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25249,11 +24825,19 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J736" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25282,11 +24866,19 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J737" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25315,11 +24907,19 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J738" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25348,11 +24948,19 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J739" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25381,11 +24989,19 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="J740" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25414,11 +25030,19 @@
         <v>5998793.378881574</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="J741" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25447,11 +25071,19 @@
         <v>6497757.051781573</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="J742" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25483,8 +25115,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25516,8 +25154,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25549,8 +25193,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25582,8 +25232,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25615,8 +25271,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25648,8 +25310,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25681,8 +25349,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25714,8 +25388,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25747,8 +25427,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25780,8 +25466,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25813,8 +25505,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25846,8 +25544,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25879,8 +25583,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25912,8 +25622,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25945,8 +25661,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25978,8 +25700,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26011,8 +25739,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26044,8 +25778,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26077,8 +25817,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26110,8 +25856,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26143,8 +25895,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26176,8 +25934,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26209,8 +25973,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26242,8 +26012,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26272,13 +26048,19 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L767" t="n">
-        <v>1</v>
+        <v>1.005687022900764</v>
       </c>
       <c r="M767" t="inlineStr"/>
     </row>
@@ -26305,7 +26087,7 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26602,7 +26384,7 @@
         <v>5468584.116897315</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26833,7 +26615,7 @@
         <v>5005745.803236094</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26866,7 +26648,7 @@
         <v>5002636.983236094</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26899,7 +26681,7 @@
         <v>4997982.363236094</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27922,10 +27704,14 @@
         <v>5112737.886537102</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="J817" t="n">
+        <v>19.79</v>
+      </c>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
@@ -27955,11 +27741,19 @@
         <v>5243737.886537102</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="J818" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27991,8 +27785,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28186,11 +27986,17 @@
         <v>4708264.788437102</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>19.74</v>
+      </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28219,11 +28025,17 @@
         <v>4375118.324737102</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>19.71</v>
+      </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28256,7 +28068,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28285,11 +28101,17 @@
         <v>4408860.037137101</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>19.76</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28318,11 +28140,17 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>19.76</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28351,11 +28179,17 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>19.78</v>
+      </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28388,7 +28222,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28421,7 +28259,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28454,7 +28296,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28487,7 +28333,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28520,7 +28370,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28553,7 +28407,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28586,7 +28444,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28619,7 +28481,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28652,7 +28518,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28685,7 +28555,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28714,11 +28588,17 @@
         <v>4212721.481137102</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>19.68</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28751,7 +28631,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28784,7 +28668,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28817,7 +28705,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28846,11 +28738,17 @@
         <v>4163005.592765522</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28879,11 +28777,17 @@
         <v>4039322.866765522</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28912,11 +28816,17 @@
         <v>4235582.300865522</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>19.65</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28945,11 +28855,17 @@
         <v>4245582.300865522</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>19.81</v>
+      </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28978,11 +28894,17 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>19.82</v>
+      </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29011,11 +28933,17 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>19.76</v>
+      </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29048,7 +28976,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29081,7 +29013,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29110,11 +29046,17 @@
         <v>4344583.412465522</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>19.77</v>
+      </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29143,11 +29085,17 @@
         <v>4466306.790365522</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>19.79</v>
+      </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29180,7 +29128,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29209,11 +29161,17 @@
         <v>4471541.086265522</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>19.82</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29242,11 +29200,17 @@
         <v>4472541.086265522</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>19.83</v>
+      </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29279,7 +29243,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29312,7 +29280,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29345,7 +29317,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29378,7 +29354,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29411,7 +29391,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29444,7 +29428,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29477,7 +29465,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29506,11 +29498,17 @@
         <v>4460741.820765523</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>19.77</v>
+      </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29539,11 +29537,17 @@
         <v>4463775.187802933</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>19.77</v>
+      </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29576,7 +29580,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29605,11 +29613,17 @@
         <v>4416799.710211333</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29638,11 +29652,17 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29671,11 +29691,17 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29708,7 +29734,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29737,11 +29767,17 @@
         <v>4434573.665511333</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>19.71</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29770,11 +29806,17 @@
         <v>4449662.353011333</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>19.81</v>
+      </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29807,7 +29849,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29840,7 +29886,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29873,7 +29923,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29906,7 +29960,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29939,7 +29997,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29972,7 +30034,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30005,7 +30071,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30038,7 +30108,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30071,7 +30145,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30104,7 +30182,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30137,7 +30219,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30170,7 +30256,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30203,7 +30293,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30236,7 +30330,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30269,7 +30367,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30302,7 +30404,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30335,7 +30441,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30368,7 +30478,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30401,7 +30515,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30434,7 +30552,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30467,7 +30589,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30500,7 +30626,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30533,7 +30663,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30566,7 +30700,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30599,7 +30737,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30632,7 +30774,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30665,7 +30811,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30698,7 +30848,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30731,7 +30885,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30764,7 +30922,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30797,7 +30959,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30830,7 +30996,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30863,7 +31033,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30896,7 +31070,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30929,7 +31107,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30962,7 +31144,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30995,7 +31181,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31028,7 +31218,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31061,7 +31255,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31094,7 +31292,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31127,7 +31329,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31160,7 +31366,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31193,7 +31403,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31226,7 +31440,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31259,7 +31477,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31292,7 +31514,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31325,7 +31551,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31358,7 +31588,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31391,7 +31625,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31424,7 +31662,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31457,7 +31699,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31490,7 +31736,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31523,7 +31773,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31556,7 +31810,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31589,7 +31847,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31622,7 +31884,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31655,7 +31921,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31688,7 +31958,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31721,7 +31995,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31754,7 +32032,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31787,7 +32069,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31820,7 +32106,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31853,7 +32143,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31886,7 +32180,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31919,7 +32217,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31952,7 +32254,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31985,7 +32291,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32018,7 +32328,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32051,7 +32365,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32084,7 +32402,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32117,7 +32439,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32150,7 +32476,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32183,7 +32513,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32216,13 +32550,17 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
       <c r="M947" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest TRX.xlsx
+++ b/BackTest/2020-01-19 BackTest TRX.xlsx
@@ -644,7 +644,7 @@
         <v>2232735.75923888</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
@@ -683,11 +683,9 @@
         <v>2293989.576238879</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>19.69</v>
       </c>
@@ -724,7 +722,7 @@
         <v>2741874.243238879</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
@@ -763,7 +761,7 @@
         <v>2716142.705738879</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
@@ -802,7 +800,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
@@ -841,7 +839,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -880,7 +878,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -919,7 +917,7 @@
         <v>2960308.236238879</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -958,7 +956,7 @@
         <v>3533563.369038879</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -966,11 +964,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.004141696292534</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -997,11 +995,17 @@
         <v>3478130.395038879</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +1034,17 @@
         <v>3550289.085170869</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +1073,17 @@
         <v>3550322.085238879</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1112,17 @@
         <v>4467124.673860718</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1132,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1165,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1229,17 @@
         <v>4471473.224860718</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1228,11 +1268,17 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1261,11 +1307,17 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1330,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1363,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1396,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1528,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1627,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1660,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1693,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1726,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1759,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1792,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1970,17 @@
         <v>6950456.093460717</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +2009,17 @@
         <v>6762313.401460717</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +2048,17 @@
         <v>6538961.924960718</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1924,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1957,8 +2129,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2053,11 +2243,17 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2086,11 +2282,17 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +2321,17 @@
         <v>6728819.914360718</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2152,11 +2360,17 @@
         <v>6886224.221860718</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2185,11 +2399,17 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2218,11 +2438,17 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2254,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2287,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2320,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2594,17 @@
         <v>7200682.084060718</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2386,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2672,17 @@
         <v>7163549.330760718</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2711,17 @@
         <v>7265339.722160718</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2750,17 @@
         <v>7399372.537733939</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2515,11 +2789,17 @@
         <v>7399190.625133938</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2828,17 @@
         <v>7908557.061133938</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2584,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2617,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2650,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2683,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2716,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2749,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2782,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2815,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2848,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2881,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2947,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2980,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3046,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3175,13 +3569,19 @@
         <v>10287989.06246795</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>1.017346368715084</v>
       </c>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -3208,7 +3608,7 @@
         <v>10285039.06246795</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3241,7 +3641,7 @@
         <v>10391585.23746795</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3274,7 +3674,7 @@
         <v>10574310.33486795</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3307,7 +3707,7 @@
         <v>10563099.72426795</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3340,7 +3740,7 @@
         <v>11558690.36596795</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3373,7 +3773,7 @@
         <v>11558690.36596795</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3406,7 +3806,7 @@
         <v>11908395.00456795</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3439,7 +3839,7 @@
         <v>11127022.98146795</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3472,7 +3872,7 @@
         <v>11084817.17746795</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3505,7 +3905,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3538,7 +3938,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3571,7 +3971,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3604,7 +4004,7 @@
         <v>11134421.20936795</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3637,7 +4037,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3670,7 +4070,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3703,7 +4103,7 @@
         <v>12913784.53946795</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3736,7 +4136,7 @@
         <v>13004462.66026795</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3769,7 +4169,7 @@
         <v>12837677.27066795</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3802,7 +4202,7 @@
         <v>12762482.48346795</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3835,7 +4235,7 @@
         <v>13734631.54526795</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3868,7 +4268,7 @@
         <v>13937570.19066795</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3901,7 +4301,7 @@
         <v>13737570.19066795</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3934,7 +4334,7 @@
         <v>13711935.46066795</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4000,7 +4400,7 @@
         <v>13447475.53556795</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4033,7 +4433,7 @@
         <v>12845697.40476795</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4066,7 +4466,7 @@
         <v>12809846.74266795</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4297,7 +4697,7 @@
         <v>14033736.20616795</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4330,7 +4730,7 @@
         <v>13933228.82006795</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4429,7 +4829,7 @@
         <v>14214381.34695849</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5749,7 +6149,7 @@
         <v>13527376.29921144</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5782,7 +6182,7 @@
         <v>13397687.16191144</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5815,7 +6215,7 @@
         <v>13471974.22601144</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5914,7 +6314,7 @@
         <v>13119211.7768055</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6079,7 +6479,7 @@
         <v>13791166.3524055</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -9874,7 +10274,7 @@
         <v>11335765.80046632</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9907,7 +10307,7 @@
         <v>11451181.10746632</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9940,7 +10340,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9973,7 +10373,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10006,7 +10406,7 @@
         <v>11262850.04416632</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10039,7 +10439,7 @@
         <v>11294273.70836632</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10072,7 +10472,7 @@
         <v>11294113.70836632</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10105,7 +10505,7 @@
         <v>11286318.95196632</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10138,7 +10538,7 @@
         <v>11274663.57196631</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10171,7 +10571,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10237,7 +10637,7 @@
         <v>11257445.44713859</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10270,7 +10670,7 @@
         <v>11162904.87723858</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10303,7 +10703,7 @@
         <v>11154606.43373859</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10336,7 +10736,7 @@
         <v>11221793.40053859</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10369,7 +10769,7 @@
         <v>11279801.82733859</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10402,7 +10802,7 @@
         <v>11261429.21143859</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10435,7 +10835,7 @@
         <v>11292195.50383859</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10501,7 +10901,7 @@
         <v>11303506.24193859</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10534,7 +10934,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10567,7 +10967,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10600,7 +11000,7 @@
         <v>11166689.68123858</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10633,7 +11033,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10666,7 +11066,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10699,7 +11099,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10765,7 +11165,7 @@
         <v>11224650.36613858</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10798,7 +11198,7 @@
         <v>11148424.92203858</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10831,7 +11231,7 @@
         <v>11123461.17183859</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -13042,7 +13442,7 @@
         <v>9866373.389653699</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13075,7 +13475,7 @@
         <v>9697081.71444894</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13108,7 +13508,7 @@
         <v>8662459.71554894</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13141,7 +13541,7 @@
         <v>8459549.71564894</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -21358,14 +21758,10 @@
         <v>4597258.674457195</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="J633" t="n">
-        <v>19.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
@@ -21398,14 +21794,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21434,19 +21824,11 @@
         <v>5523907.250857195</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="J635" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22168,7 +22550,7 @@
         <v>6680226.702992503</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22234,7 +22616,7 @@
         <v>6686917.279580423</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22267,7 +22649,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22300,7 +22682,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22333,7 +22715,7 @@
         <v>6579055.446180422</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22366,7 +22748,7 @@
         <v>6550860.399980422</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22399,7 +22781,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22432,7 +22814,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22465,7 +22847,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22498,7 +22880,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22531,7 +22913,7 @@
         <v>6557464.359880422</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22564,7 +22946,7 @@
         <v>6552394.359880422</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22597,7 +22979,7 @@
         <v>6420949.103280422</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22861,7 +23243,7 @@
         <v>6361010.805961773</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22894,7 +23276,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22927,7 +23309,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22960,7 +23342,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22993,7 +23375,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23026,7 +23408,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23059,7 +23441,7 @@
         <v>6666149.733966853</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23092,7 +23474,7 @@
         <v>6666000.456466854</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23125,7 +23507,7 @@
         <v>6671998.079966853</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23158,7 +23540,7 @@
         <v>6633148.577666854</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23191,7 +23573,7 @@
         <v>6657624.407666854</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23224,7 +23606,7 @@
         <v>6651794.407666854</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23257,7 +23639,7 @@
         <v>6674674.907366853</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23290,7 +23672,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23323,7 +23705,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24544,14 +24926,10 @@
         <v>5705410.194266854</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="J729" t="n">
-        <v>19.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
@@ -24584,14 +24962,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24620,19 +24992,11 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="J731" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24661,19 +25025,11 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J732" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24702,19 +25058,11 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J733" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24743,19 +25091,11 @@
         <v>5972027.861266853</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J734" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24784,19 +25124,11 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="J735" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24825,19 +25157,11 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J736" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24866,19 +25190,11 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J737" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24907,19 +25223,11 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J738" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24948,19 +25256,11 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J739" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24989,19 +25289,11 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="J740" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25030,19 +25322,11 @@
         <v>5998793.378881574</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="J741" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25071,19 +25355,11 @@
         <v>6497757.051781573</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="J742" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25115,14 +25391,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25154,14 +25424,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25193,14 +25457,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25232,14 +25490,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25271,14 +25523,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25310,14 +25556,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25349,14 +25589,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25388,14 +25622,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25427,14 +25655,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25466,14 +25688,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25505,14 +25721,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25544,14 +25754,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25583,14 +25787,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25622,14 +25820,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25661,14 +25853,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25700,14 +25886,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25739,14 +25919,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25778,14 +25952,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25817,14 +25985,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25856,14 +26018,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25895,14 +26051,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25934,14 +26084,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25973,14 +26117,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26012,14 +26150,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26048,19 +26180,13 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
-        <v>1.005687022900764</v>
+        <v>1</v>
       </c>
       <c r="M767" t="inlineStr"/>
     </row>
@@ -26087,7 +26213,7 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26384,7 +26510,7 @@
         <v>5468584.116897315</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26615,7 +26741,7 @@
         <v>5005745.803236094</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26648,7 +26774,7 @@
         <v>5002636.983236094</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26681,7 +26807,7 @@
         <v>4997982.363236094</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27704,14 +27830,10 @@
         <v>5112737.886537102</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="J817" t="n">
-        <v>19.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
@@ -27741,19 +27863,11 @@
         <v>5243737.886537102</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="J818" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27785,14 +27899,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27986,17 +28094,11 @@
         <v>4708264.788437102</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>19.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28025,17 +28127,11 @@
         <v>4375118.324737102</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>19.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28068,11 +28164,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28101,17 +28193,11 @@
         <v>4408860.037137101</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>19.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28140,17 +28226,11 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>19.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28179,17 +28259,11 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>19.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28222,11 +28296,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28259,11 +28329,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28296,11 +28362,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28333,11 +28395,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28370,11 +28428,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28407,11 +28461,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28444,11 +28494,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28481,11 +28527,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28518,11 +28560,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28555,11 +28593,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28588,17 +28622,11 @@
         <v>4212721.481137102</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>19.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28631,11 +28659,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28668,11 +28692,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28705,11 +28725,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28738,17 +28754,11 @@
         <v>4163005.592765522</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28777,17 +28787,11 @@
         <v>4039322.866765522</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28816,17 +28820,11 @@
         <v>4235582.300865522</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>19.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28855,17 +28853,11 @@
         <v>4245582.300865522</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>19.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28894,17 +28886,11 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>19.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28933,17 +28919,11 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>19.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28976,11 +28956,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29013,11 +28989,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29046,17 +29018,11 @@
         <v>4344583.412465522</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>19.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29085,17 +29051,11 @@
         <v>4466306.790365522</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>19.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29088,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29161,17 +29117,11 @@
         <v>4471541.086265522</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>19.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29200,17 +29150,11 @@
         <v>4472541.086265522</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>19.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29243,11 +29187,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29280,11 +29220,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29317,11 +29253,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29354,11 +29286,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29391,11 +29319,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29428,11 +29352,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +29385,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29498,17 +29414,11 @@
         <v>4460741.820765523</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>19.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29537,17 +29447,11 @@
         <v>4463775.187802933</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>19.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29580,11 +29484,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29613,17 +29513,11 @@
         <v>4416799.710211333</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29652,17 +29546,11 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29691,17 +29579,11 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29734,11 +29616,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29767,17 +29645,11 @@
         <v>4434573.665511333</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>19.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29806,17 +29678,11 @@
         <v>4449662.353011333</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>19.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29849,11 +29715,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29886,11 +29748,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29923,11 +29781,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29960,11 +29814,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29997,11 +29847,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30034,11 +29880,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30071,11 +29913,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30108,11 +29946,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30145,11 +29979,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30182,11 +30012,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30219,11 +30045,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30256,11 +30078,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30293,11 +30111,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30330,11 +30144,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30367,11 +30177,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30404,11 +30210,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30441,11 +30243,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30478,11 +30276,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30515,11 +30309,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30552,11 +30342,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30589,11 +30375,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30626,11 +30408,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30663,11 +30441,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30700,11 +30474,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30737,11 +30507,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30774,11 +30540,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30811,11 +30573,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30848,11 +30606,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30885,11 +30639,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30922,11 +30672,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30959,11 +30705,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30996,11 +30738,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31033,11 +30771,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31070,11 +30804,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31107,11 +30837,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31144,11 +30870,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31181,11 +30903,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31218,11 +30936,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31255,11 +30969,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31292,11 +31002,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31329,11 +31035,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31366,11 +31068,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31403,11 +31101,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31440,11 +31134,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31477,11 +31167,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31514,11 +31200,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31551,11 +31233,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31588,11 +31266,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31625,11 +31299,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31662,11 +31332,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31699,11 +31365,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31736,11 +31398,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31773,11 +31431,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31810,11 +31464,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31847,11 +31497,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31884,11 +31530,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31921,11 +31563,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31958,11 +31596,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31995,11 +31629,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32032,11 +31662,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32069,11 +31695,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32106,11 +31728,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32143,11 +31761,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32180,11 +31794,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32217,11 +31827,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32254,11 +31860,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32291,11 +31893,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32328,11 +31926,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32365,11 +31959,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32402,11 +31992,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32439,11 +32025,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32476,11 +32058,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32513,11 +32091,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32550,11 +32124,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
